--- a/sample_excel.xlsx
+++ b/sample_excel.xlsx
@@ -530,7 +530,7 @@
         <v>183.35882292999997</v>
       </c>
       <c r="F5" t="str">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>18.2</v>
@@ -694,7 +694,7 @@
         <v>23.618280150000007</v>
       </c>
       <c r="F9" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>15.628821039999998</v>
@@ -735,7 +735,7 @@
         <v>4.184000000000001</v>
       </c>
       <c r="F10" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>-0.2699999999999999</v>
@@ -776,7 +776,7 @@
         <v>23.444407559999995</v>
       </c>
       <c r="F11" t="str">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11">
         <v>-0.43046726000000035</v>
@@ -817,7 +817,7 @@
         <v>12.85228412</v>
       </c>
       <c r="F12" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>-0.006432379999992577</v>
@@ -858,7 +858,7 @@
         <v>11.68545257</v>
       </c>
       <c r="F13" t="str">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <v>-0.10390193000000636</v>
@@ -899,7 +899,7 @@
         <v>12.201756189999996</v>
       </c>
       <c r="F14" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>2.6</v>
@@ -981,7 +981,7 @@
         <v>13.399000000000001</v>
       </c>
       <c r="F16" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>0.7</v>
@@ -1022,7 +1022,7 @@
         <v>30.786144869999987</v>
       </c>
       <c r="F17" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <v>2.27</v>
@@ -1072,7 +1072,7 @@
         <v>BTC</v>
       </c>
       <c r="I18" t="str">
-        <v>Total Winrate</v>
+        <v/>
       </c>
       <c r="J18" t="str">
         <v>Total Positions Spot</v>
@@ -1113,7 +1113,7 @@
         <v>619.9154758099999</v>
       </c>
       <c r="I19" t="str">
-        <v>0.9285714285714286%</v>
+        <v/>
       </c>
       <c r="J19">
         <v>157</v>

--- a/sample_excel.xlsx
+++ b/sample_excel.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -469,6 +469,12 @@
         <v>Eth Positions Leverage</v>
       </c>
       <c r="M3" t="str">
+        <v>Qtf Leverage BTC Positions</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Qtf Leverage Eth Positions</v>
+      </c>
+      <c r="O3" t="str">
         <v>Total Positions Leverage</v>
       </c>
     </row>
@@ -477,7 +483,7 @@
         <v>Wed Aug 16 2023</v>
       </c>
       <c r="B4" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C4" t="str">
         <v>sadeem</v>
@@ -486,31 +492,37 @@
         <v>114.9676</v>
       </c>
       <c r="E4">
-        <v>4.639513899999999</v>
+        <v>5.19863109</v>
       </c>
       <c r="F4" t="str">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0.04757676999999809</v>
       </c>
       <c r="H4">
-        <v>4.639513899999999</v>
+        <v>5.246207859999998</v>
       </c>
       <c r="I4" t="str">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +530,7 @@
         <v>Tue Aug 29 2023</v>
       </c>
       <c r="B5" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C5" t="str">
         <v>QTF-B</v>
@@ -527,31 +539,37 @@
         <v>2499.8927</v>
       </c>
       <c r="E5">
-        <v>183.35882292999997</v>
+        <v>226.70754476999997</v>
       </c>
       <c r="F5" t="str">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G5">
-        <v>18.2</v>
+        <v>44.09600206999991</v>
       </c>
       <c r="H5">
-        <v>165.15882292999999</v>
+        <v>182.61154270000006</v>
       </c>
       <c r="I5" t="str">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -559,7 +577,7 @@
         <v>Sat Aug 26 2023</v>
       </c>
       <c r="B6" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C6" t="str">
         <v>QTF-A</v>
@@ -568,31 +586,37 @@
         <v>2500</v>
       </c>
       <c r="E6">
-        <v>306.94885703</v>
+        <v>371.83075841000004</v>
       </c>
       <c r="F6" t="str">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>21.36</v>
+        <v>51.534076080000084</v>
       </c>
       <c r="H6">
-        <v>285.58885703</v>
+        <v>320.29668232999995</v>
       </c>
       <c r="I6" t="str">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -600,7 +624,7 @@
         <v>Mon Aug 28 2023</v>
       </c>
       <c r="B7" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C7" t="str">
         <v>saif</v>
@@ -609,16 +633,16 @@
         <v>224.7364</v>
       </c>
       <c r="E7">
-        <v>30.74108125000002</v>
+        <v>59.09884088</v>
       </c>
       <c r="F7" t="str">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G7">
-        <v>0.45585036000000234</v>
+        <v>19.35514153</v>
       </c>
       <c r="H7">
-        <v>30.285230890000015</v>
+        <v>39.74369934999999</v>
       </c>
       <c r="I7" t="str">
         <v>99</v>
@@ -627,13 +651,19 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -641,7 +671,7 @@
         <v>Mon Aug 28 2023</v>
       </c>
       <c r="B8" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C8" t="str">
         <v>hassan</v>
@@ -650,31 +680,37 @@
         <v>201.0715</v>
       </c>
       <c r="E8">
-        <v>19.94944534</v>
+        <v>26.197436619999998</v>
       </c>
       <c r="F8" t="str">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8">
-        <v>0.3832641399999994</v>
+        <v>3.3832641399999996</v>
       </c>
       <c r="H8">
-        <v>19.566181200000003</v>
+        <v>22.81417248</v>
       </c>
       <c r="I8" t="str">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -682,7 +718,7 @@
         <v>Tue Aug 29 2023</v>
       </c>
       <c r="B9" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C9" t="str">
         <v>Daniyal</v>
@@ -691,31 +727,37 @@
         <v>157.3693</v>
       </c>
       <c r="E9">
-        <v>23.618280150000007</v>
+        <v>39.28051482</v>
       </c>
       <c r="F9" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>15.628821039999998</v>
+        <v>18.876667509999983</v>
       </c>
       <c r="H9">
-        <v>7.989459110000009</v>
+        <v>20.403847310000018</v>
       </c>
       <c r="I9" t="str">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -723,7 +765,7 @@
         <v>Tue Aug 29 2023</v>
       </c>
       <c r="B10" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C10" t="str">
         <v>Arslan</v>
@@ -732,31 +774,37 @@
         <v>132.295</v>
       </c>
       <c r="E10">
-        <v>4.184000000000001</v>
+        <v>9.562516599999991</v>
       </c>
       <c r="F10" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>-0.2699999999999999</v>
+        <v>0.7300000000000001</v>
       </c>
       <c r="H10">
-        <v>4.454000000000001</v>
+        <v>8.832516599999991</v>
       </c>
       <c r="I10" t="str">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +812,7 @@
         <v>Tue Aug 29 2023</v>
       </c>
       <c r="B11" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C11" t="str">
         <v>Saad</v>
@@ -773,31 +821,37 @@
         <v>108.9444</v>
       </c>
       <c r="E11">
-        <v>23.444407559999995</v>
+        <v>31.04161759000001</v>
       </c>
       <c r="F11" t="str">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>-0.43046726000000035</v>
       </c>
       <c r="H11">
-        <v>23.874874819999995</v>
+        <v>31.47208485000001</v>
       </c>
       <c r="I11" t="str">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +859,7 @@
         <v>Fri Sep 01 2023</v>
       </c>
       <c r="B12" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C12" t="str">
         <v>MS Aqsa</v>
@@ -814,16 +868,16 @@
         <v>186.9977</v>
       </c>
       <c r="E12">
-        <v>12.85228412</v>
+        <v>16.858470120000007</v>
       </c>
       <c r="F12" t="str">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>-0.006432379999992577</v>
       </c>
       <c r="H12">
-        <v>12.858716499999993</v>
+        <v>16.8649025</v>
       </c>
       <c r="I12" t="str">
         <v>100</v>
@@ -832,13 +886,19 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +906,7 @@
         <v>Fri Sep 01 2023</v>
       </c>
       <c r="B13" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C13" t="str">
         <v>Ms Rimsha</v>
@@ -855,16 +915,16 @@
         <v>204.5848</v>
       </c>
       <c r="E13">
-        <v>11.68545257</v>
+        <v>16.90144235999999</v>
       </c>
       <c r="F13" t="str">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>-0.10390193000000636</v>
       </c>
       <c r="H13">
-        <v>11.789354500000007</v>
+        <v>17.005344289999996</v>
       </c>
       <c r="I13" t="str">
         <v>99</v>
@@ -873,13 +933,19 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -887,7 +953,7 @@
         <v>Mon Sep 04 2023</v>
       </c>
       <c r="B14" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C14" t="str">
         <v>Azaan</v>
@@ -896,16 +962,16 @@
         <v>200</v>
       </c>
       <c r="E14">
-        <v>12.201756189999996</v>
+        <v>13.379744579999995</v>
       </c>
       <c r="F14" t="str">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>2.6</v>
       </c>
       <c r="H14">
-        <v>9.601756189999996</v>
+        <v>10.779744579999996</v>
       </c>
       <c r="I14" t="str">
         <v>100</v>
@@ -914,13 +980,19 @@
         <v>12</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -928,7 +1000,7 @@
         <v>Tue Sep 05 2023</v>
       </c>
       <c r="B15" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C15" t="str">
         <v>waleed</v>
@@ -937,31 +1009,37 @@
         <v>200</v>
       </c>
       <c r="E15">
-        <v>24.1441378</v>
+        <v>41.172018077999994</v>
       </c>
       <c r="F15" t="str">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G15">
-        <v>21.250573929999995</v>
+        <v>25.224265489999972</v>
       </c>
       <c r="H15">
-        <v>2.8935638700000035</v>
+        <v>15.947752588000023</v>
       </c>
       <c r="I15" t="str">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -969,7 +1047,7 @@
         <v>Fri Sep 08 2023</v>
       </c>
       <c r="B16" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C16" t="str">
         <v>Awais</v>
@@ -978,31 +1056,37 @@
         <v>366</v>
       </c>
       <c r="E16">
-        <v>13.399000000000001</v>
+        <v>23.58751518000002</v>
       </c>
       <c r="F16" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>0.7</v>
+        <v>10.367717750000015</v>
       </c>
       <c r="H16">
-        <v>12.699000000000002</v>
+        <v>13.219797430000003</v>
       </c>
       <c r="I16" t="str">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1010,7 +1094,7 @@
         <v>Sun Sep 10 2023</v>
       </c>
       <c r="B17" t="str">
-        <v>Sat Sep 23 2023</v>
+        <v>Thu Sep 28 2023</v>
       </c>
       <c r="C17" t="str">
         <v>Ms Emma</v>
@@ -1019,31 +1103,37 @@
         <v>500</v>
       </c>
       <c r="E17">
-        <v>30.786144869999987</v>
+        <v>38.09678912</v>
       </c>
       <c r="F17" t="str">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>7.732564739999999</v>
+      </c>
+      <c r="H17">
+        <v>30.364224379999996</v>
+      </c>
+      <c r="I17" t="str">
+        <v>99</v>
+      </c>
+      <c r="J17">
         <v>13</v>
       </c>
-      <c r="G17">
-        <v>2.27</v>
-      </c>
-      <c r="H17">
-        <v>28.516144869999987</v>
-      </c>
-      <c r="I17" t="str">
-        <v>100</v>
-      </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
       <c r="K17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1084,6 +1174,12 @@
         <v>Total ETH Positions Leverage</v>
       </c>
       <c r="M18" t="str">
+        <v>Total Qtf Leverage BTC Positions</v>
+      </c>
+      <c r="N18" t="str">
+        <v>Total Qtf Leverage Eth Positions</v>
+      </c>
+      <c r="O18" t="str">
         <v>Total Positions Leverage</v>
       </c>
     </row>
@@ -1101,36 +1197,42 @@
         <v>7596.8594</v>
       </c>
       <c r="E19">
-        <v>701.9531837099998</v>
+        <v>918.9138402179999</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19">
-        <v>82.03770789999999</v>
+        <v>183.3113209699999</v>
       </c>
       <c r="H19">
-        <v>619.9154758099999</v>
+        <v>735.602519248</v>
       </c>
       <c r="I19" t="str">
         <v/>
       </c>
       <c r="J19">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K19">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="M19">
-        <v>219</v>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sample_excel.xlsx
+++ b/sample_excel.xlsx
@@ -428,7 +428,7 @@
         <v>Of</v>
       </c>
       <c r="I1" t="str">
-        <v>September</v>
+        <v>October</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Wed Aug 16 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B4" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C4" t="str">
         <v>sadeem</v>
@@ -492,45 +492,45 @@
         <v>114.9676</v>
       </c>
       <c r="E4">
-        <v>5.19863109</v>
+        <v>-0.0281167</v>
       </c>
       <c r="F4" t="str">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>-0.04757676999999809</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.246207859999998</v>
+        <v>-0.0281167</v>
       </c>
       <c r="I4" t="str">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Tue Aug 29 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B5" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C5" t="str">
         <v>QTF-B</v>
@@ -539,28 +539,28 @@
         <v>2499.8927</v>
       </c>
       <c r="E5">
-        <v>226.70754476999997</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>44.09600206999991</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>182.61154270000006</v>
+        <v>0</v>
       </c>
       <c r="I5" t="str">
-        <v>100</v>
+        <v>NaN</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -569,15 +569,15 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Sat Aug 26 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B6" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C6" t="str">
         <v>QTF-A</v>
@@ -586,28 +586,28 @@
         <v>2500</v>
       </c>
       <c r="E6">
-        <v>371.83075841000004</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>51.534076080000084</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>320.29668232999995</v>
+        <v>0</v>
       </c>
       <c r="I6" t="str">
-        <v>100</v>
+        <v>NaN</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -616,15 +616,15 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mon Aug 28 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B7" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C7" t="str">
         <v>saif</v>
@@ -633,45 +633,45 @@
         <v>224.7364</v>
       </c>
       <c r="E7">
-        <v>59.09884088</v>
+        <v>-0.07707850000000001</v>
       </c>
       <c r="F7" t="str">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>19.35514153</v>
+        <v>-0.0880785</v>
       </c>
       <c r="H7">
-        <v>39.74369934999999</v>
+        <v>0.011</v>
       </c>
       <c r="I7" t="str">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mon Aug 28 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B8" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C8" t="str">
         <v>hassan</v>
@@ -680,45 +680,45 @@
         <v>201.0715</v>
       </c>
       <c r="E8">
-        <v>26.197436619999998</v>
+        <v>2.2694202</v>
       </c>
       <c r="F8" t="str">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>3.3832641399999996</v>
+        <v>2.1484202</v>
       </c>
       <c r="H8">
-        <v>22.81417248</v>
+        <v>0.121</v>
       </c>
       <c r="I8" t="str">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Tue Aug 29 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B9" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C9" t="str">
         <v>Daniyal</v>
@@ -727,45 +727,45 @@
         <v>157.3693</v>
       </c>
       <c r="E9">
-        <v>39.28051482</v>
+        <v>-40.49469636</v>
       </c>
       <c r="F9" t="str">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>18.876667509999983</v>
+        <v>-49.57582258</v>
       </c>
       <c r="H9">
-        <v>20.403847310000018</v>
+        <v>9.081126220000002</v>
       </c>
       <c r="I9" t="str">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>7</v>
-      </c>
-      <c r="K9">
-        <v>9</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Tue Aug 29 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B10" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C10" t="str">
         <v>Arslan</v>
@@ -774,28 +774,28 @@
         <v>132.295</v>
       </c>
       <c r="E10">
-        <v>9.562516599999991</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>0.7300000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>8.832516599999991</v>
+        <v>0</v>
       </c>
       <c r="I10" t="str">
-        <v>80</v>
+        <v>NaN</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -804,15 +804,15 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Tue Aug 29 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B11" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C11" t="str">
         <v>Saad</v>
@@ -821,25 +821,25 @@
         <v>108.9444</v>
       </c>
       <c r="E11">
-        <v>31.04161759000001</v>
+        <v>8.691837959999985</v>
       </c>
       <c r="F11" t="str">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>-0.43046726000000035</v>
+        <v>3.9439879999999885</v>
       </c>
       <c r="H11">
-        <v>31.47208485000001</v>
+        <v>4.747849959999996</v>
       </c>
       <c r="I11" t="str">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -848,18 +848,18 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Fri Sep 01 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B12" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C12" t="str">
         <v>MS Aqsa</v>
@@ -868,45 +868,45 @@
         <v>186.9977</v>
       </c>
       <c r="E12">
-        <v>16.858470120000007</v>
+        <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>-0.006432379999992577</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>16.8649025</v>
+        <v>0</v>
       </c>
       <c r="I12" t="str">
-        <v>100</v>
+        <v>NaN</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Fri Sep 01 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B13" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C13" t="str">
         <v>Ms Rimsha</v>
@@ -915,28 +915,28 @@
         <v>204.5848</v>
       </c>
       <c r="E13">
-        <v>16.90144235999999</v>
+        <v>0.6213886200000001</v>
       </c>
       <c r="F13" t="str">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>-0.10390193000000636</v>
+        <v>0.57238862</v>
       </c>
       <c r="H13">
-        <v>17.005344289999996</v>
+        <v>0.049</v>
       </c>
       <c r="I13" t="str">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -945,15 +945,15 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mon Sep 04 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B14" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C14" t="str">
         <v>Azaan</v>
@@ -962,45 +962,45 @@
         <v>200</v>
       </c>
       <c r="E14">
-        <v>13.379744579999995</v>
+        <v>1.9189586900000004</v>
       </c>
       <c r="F14" t="str">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>2.6</v>
+        <v>1.9109586900000004</v>
       </c>
       <c r="H14">
-        <v>10.779744579999996</v>
+        <v>0.008</v>
       </c>
       <c r="I14" t="str">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Tue Sep 05 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B15" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C15" t="str">
         <v>waleed</v>
@@ -1009,28 +1009,28 @@
         <v>200</v>
       </c>
       <c r="E15">
-        <v>41.172018077999994</v>
+        <v>2.2634337400000053</v>
       </c>
       <c r="F15" t="str">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>25.224265489999972</v>
+        <v>2.362895690000005</v>
       </c>
       <c r="H15">
-        <v>15.947752588000023</v>
+        <v>-0.09946195</v>
       </c>
       <c r="I15" t="str">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1039,15 +1039,15 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Fri Sep 08 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B16" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C16" t="str">
         <v>Awais</v>
@@ -1056,45 +1056,45 @@
         <v>366</v>
       </c>
       <c r="E16">
-        <v>23.58751518000002</v>
+        <v>-0.08152659</v>
       </c>
       <c r="F16" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>10.367717750000015</v>
+        <v>-0.18731909</v>
       </c>
       <c r="H16">
-        <v>13.219797430000003</v>
+        <v>0.1057925</v>
       </c>
       <c r="I16" t="str">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sun Sep 10 2023</v>
+        <v>Thu Oct 12 2023</v>
       </c>
       <c r="B17" t="str">
-        <v>Thu Sep 28 2023</v>
+        <v>Sun Oct 22 2023</v>
       </c>
       <c r="C17" t="str">
         <v>Ms Emma</v>
@@ -1103,37 +1103,37 @@
         <v>500</v>
       </c>
       <c r="E17">
-        <v>38.09678912</v>
+        <v>-71.29495135999997</v>
       </c>
       <c r="F17" t="str">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>7.732564739999999</v>
+        <v>0.68242760000002</v>
       </c>
       <c r="H17">
-        <v>30.364224379999996</v>
+        <v>-71.97737896</v>
       </c>
       <c r="I17" t="str">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1197,37 +1197,37 @@
         <v>7596.8594</v>
       </c>
       <c r="E19">
-        <v>918.9138402179999</v>
+        <v>-96.21133029999997</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19">
-        <v>183.3113209699999</v>
+        <v>-38.23014136999999</v>
       </c>
       <c r="H19">
-        <v>735.602519248</v>
+        <v>-57.98118893</v>
       </c>
       <c r="I19" t="str">
         <v/>
       </c>
       <c r="J19">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="L19">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O19">
-        <v>314</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sample_excel.xlsx
+++ b/sample_excel.xlsx
@@ -479,38 +479,38 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Thu Oct 12 2023</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Sun Oct 22 2023</v>
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="str">
-        <v>sadeem</v>
+        <v>QTFA - pk</v>
       </c>
       <c r="D4">
-        <v>114.9676</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.0281167</v>
-      </c>
-      <c r="F4" t="str">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-0.0281167</v>
-      </c>
-      <c r="I4" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -522,42 +522,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B5" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C5" t="str">
-        <v>QTF-B</v>
+        <v>Daniyal</v>
       </c>
       <c r="D5">
-        <v>2499.8927</v>
+        <v>138.0643</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="F5" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="I5" t="str">
-        <v>NaN</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -569,45 +569,45 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B6" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C6" t="str">
-        <v>QTF-A</v>
+        <v>Arslan</v>
       </c>
       <c r="D6">
-        <v>2500</v>
+        <v>187.798</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="F6" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="I6" t="str">
-        <v>NaN</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -616,36 +616,36 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B7" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C7" t="str">
-        <v>saif</v>
+        <v>Azan</v>
       </c>
       <c r="D7">
-        <v>224.7364</v>
+        <v>109.6012</v>
       </c>
       <c r="E7">
-        <v>-0.07707850000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>-0.0880785</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="I7" t="str">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -660,36 +660,36 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B8" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C8" t="str">
-        <v>hassan</v>
+        <v>waleed</v>
       </c>
       <c r="D8">
-        <v>201.0715</v>
+        <v>143.3761</v>
       </c>
       <c r="E8">
-        <v>2.2694202</v>
+        <v>0.01</v>
       </c>
       <c r="F8" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>2.1484202</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.121</v>
+        <v>0.01</v>
       </c>
       <c r="I8" t="str">
         <v>100</v>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -707,92 +707,92 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B9" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C9" t="str">
-        <v>Daniyal</v>
+        <v>Awais</v>
       </c>
       <c r="D9">
-        <v>157.3693</v>
+        <v>320.87</v>
       </c>
       <c r="E9">
-        <v>-40.49469636</v>
+        <v>-0.060700800000000006</v>
       </c>
       <c r="F9" t="str">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-0.060700800000000006</v>
+      </c>
+      <c r="I9" t="str">
         <v>10</v>
       </c>
-      <c r="G9">
-        <v>-49.57582258</v>
-      </c>
-      <c r="H9">
-        <v>9.081126220000002</v>
-      </c>
-      <c r="I9" t="str">
-        <v>19</v>
-      </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B10" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C10" t="str">
-        <v>Arslan</v>
+        <v>Mr Saif</v>
       </c>
       <c r="D10">
-        <v>132.295</v>
+        <v>200.872</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="F10" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="I10" t="str">
-        <v>NaN</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -804,83 +804,83 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B11" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C11" t="str">
-        <v>Saad</v>
+        <v>Hassan</v>
       </c>
       <c r="D11">
-        <v>108.9444</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>8.691837959999985</v>
+        <v>0.009</v>
       </c>
       <c r="F11" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>3.9439879999999885</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>4.747849959999996</v>
+        <v>0.009</v>
       </c>
       <c r="I11" t="str">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B12" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C12" t="str">
-        <v>MS Aqsa</v>
+        <v>Aqsa run1</v>
       </c>
       <c r="D12">
-        <v>186.9977</v>
+        <v>60.0867</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-0.08583225</v>
       </c>
       <c r="F12" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>-0.08583225</v>
       </c>
       <c r="I12" t="str">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -895,36 +895,36 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Thu Oct 12 2023</v>
+        <v>Sun Oct 15 2023</v>
       </c>
       <c r="B13" t="str">
-        <v>Sun Oct 22 2023</v>
+        <v>Thu Oct 26 2023</v>
       </c>
       <c r="C13" t="str">
-        <v>Ms Rimsha</v>
+        <v>Rimsha Test run 2</v>
       </c>
       <c r="D13">
-        <v>204.5848</v>
+        <v>125.8419</v>
       </c>
       <c r="E13">
-        <v>0.6213886200000001</v>
+        <v>0.008</v>
       </c>
       <c r="F13" t="str">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>0.57238862</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.049</v>
+        <v>0.008</v>
       </c>
       <c r="I13" t="str">
         <v>100</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -942,95 +942,95 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>Thu Oct 12 2023</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Sun Oct 22 2023</v>
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="str">
-        <v>Azaan</v>
+        <v>sadeem</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.9189586900000004</v>
-      </c>
-      <c r="F14" t="str">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1.9109586900000004</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.008</v>
-      </c>
-      <c r="I14" t="str">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>Thu Oct 12 2023</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Sun Oct 22 2023</v>
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="str">
-        <v>waleed</v>
+        <v>sadsad</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.2634337400000053</v>
-      </c>
-      <c r="F15" t="str">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2.362895690000005</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0.09946195</v>
-      </c>
-      <c r="I15" t="str">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1039,42 +1039,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>Thu Oct 12 2023</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Sun Oct 22 2023</v>
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="str">
-        <v>Awais</v>
+        <v>Ms Emma</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-0.08152659</v>
-      </c>
-      <c r="F16" t="str">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.18731909</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1057925</v>
-      </c>
-      <c r="I16" t="str">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1083,57 +1083,57 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>Thu Oct 12 2023</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Sun Oct 22 2023</v>
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="str">
-        <v>Ms Emma</v>
+        <v>QTF-B .USA</v>
       </c>
       <c r="D17">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>-71.29495135999997</v>
-      </c>
-      <c r="F17" t="str">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.68242760000002</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-71.97737896</v>
-      </c>
-      <c r="I17" t="str">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1194,40 +1194,40 @@
         <v>14</v>
       </c>
       <c r="D19">
-        <v>7596.8594</v>
+        <v>1358.5102</v>
       </c>
       <c r="E19">
-        <v>-96.21133029999997</v>
+        <v>-0.08553305</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19">
-        <v>-38.23014136999999</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-57.98118893</v>
+        <v>-0.08553305</v>
       </c>
       <c r="I19" t="str">
         <v/>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>2</v>
-      </c>
-      <c r="N19">
-        <v>14</v>
-      </c>
-      <c r="O19">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
